--- a/biology/Botanique/Coprin/Coprin.xlsx
+++ b/biology/Botanique/Coprin/Coprin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprin est un nom vulgaire, issu du genre latin Coprinus, qui désignait un regroupement taxinomique désormais caduc de champignons à lames. De nombreuses espèces conservent néanmoins un nom normalisé formé à partir de ce terme, bien qu'elles ne soient pas apparentées.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie et définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme vient du grec ancien copros qui signifie « fumier ». Les coprins sont des champignons à lames au chapeau cylindrique. Ils sont caractérisés par leur lames libres qui deviennent déliquescentes à maturité, et leur sporée violacée, brun pourpre ou noire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme vient du grec ancien copros qui signifie « fumier ». Les coprins sont des champignons à lames au chapeau cylindrique. Ils sont caractérisés par leur lames libres qui deviennent déliquescentes à maturité, et leur sporée violacée, brun pourpre ou noire.
 </t>
         </is>
       </c>
@@ -542,67 +556,69 @@
           <t>Liste alphabétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Coprin à chapeau lisse – Parasola leiocephala[2]
-Coprin à disque sépia – Coprinellus plagioporus[2]
-Coprin à fausse volve – Coprinellus ellisii[3]
-Coprin à feutre roux – Coprinus radians[3]
-Coprin à odeur de bitume – Coprinus griseofoetidus[3]
-Coprin à spores anguleuses – Coprinellus marculentus[2]
-Coprin à tête dorée – Parasola auricoma[2]
-Coprin à tête rouge – Coprinus erythrocephalus[3]
-Coprin à voile jaune – Coprinellus xanthothrix[3]
-Coprin annelé – Coprinus sterquilinus[3]
-Coprin bisporique – Coprinellus bisporus[2]
-Coprin blanc de neige – Coprinopsis nivea[3]
-Coprin blanc et noir – Coprinus picaceus[1]
-Coprin cendré – Coprinus cinereus[3]
-Coprin chevelu – Coprinus comatus[3]
-Coprin conique – Parasola conopilus[2]
-Coprin de Fries – Coprinopsis friesii[2]
-Coprin de Kühner – Parasola kuehneri[2]
-Coprin de Romagnesi – Coprinopsis romagnesiana[2]
-Coprin de Sprague – Coprinus spraguei[2]
-Coprin des charbonnières – Coprinellus angulatus[3]
-Coprin des chaumes – Coprinus friesii[3]
-Coprin des forêts – Coprinellus silvaticus[2]
-Coprin des joncs – Coprinopsis martinii[3]
-Coprin des oyats – Coprinopsis ammophilae[3]
-Coprin des troncs – Coprinellus truncorum[2]
-Coprin disséminé – Coprinellus disseminatus[1]
-Coprin domestique – Coprinellus domesticus[3]
-Coprin doré – Parasola auricoma[3]
-Coprin du fumier – Coprinus sterquilinus[2]
-Coprin du peuplier – Coprinus strossmayeri[3]
-Coprin écailleux – Coprinopsis variegata[2]
-Coprin éphémère – Coprinellus ephemerus[2]
-Coprin floconneux – Coprinellus flocculosus[2]
-Coprin fugitif – Parasola hemerobia[2]
-Coprin glabre – Parasola leiocephala[3]
-Coprin grégaire – Coprinus disseminatus[3]
-Coprin gris souris – Coprinopsis laanii[3]
-Coprin impatient – Coprinus impatiens[3]
-Coprin insigne – Coprinopsis insignis[2]
-Coprin laineux – Coprinellus laniger[2]
-Coprin laineux des charbonnières – Coprinus jonesii[3]
-Coprin macrocéphale – Coprinopsis macrocephala[2]
-Coprin micacé – Coprinellus micaceus[3]
-Coprin micace à pied lisse – Coprinellus truncorum[3]
-Coprin mini-pie – Coprinopsis gonophylla[3]
-Coprin misérable – Parasola misera[3]
-Coprin noir d'encre – Coprinus atramentarius[3]
-Coprin noir d'encre pointu – Coprinopsis acuminata[3]
-Coprin parasol – Parasola plicatilis[3]
-Coprin pie – Coprinopsis picacea[3]
-Coprin pied-de-lièvre – Coprinopsis lagopus[3]
-Coprin plissé – Parasola plicatilis[2]
-Coprin rayonnant – Coprinellus radians[2]
-Coprin stercoraire – Coprinopsis stercorea[2]
-Coprin squamuleux – Coprinus romagnesianus[3]
-Coprin virginal – Coprinellus heptemerus[2]
-Coprin voilé de blanc – Coprinopsis canoceps[2]
+Coprin à chapeau lisse – Parasola leiocephala
+Coprin à disque sépia – Coprinellus plagioporus
+Coprin à fausse volve – Coprinellus ellisii
+Coprin à feutre roux – Coprinus radians
+Coprin à odeur de bitume – Coprinus griseofoetidus
+Coprin à spores anguleuses – Coprinellus marculentus
+Coprin à tête dorée – Parasola auricoma
+Coprin à tête rouge – Coprinus erythrocephalus
+Coprin à voile jaune – Coprinellus xanthothrix
+Coprin annelé – Coprinus sterquilinus
+Coprin bisporique – Coprinellus bisporus
+Coprin blanc de neige – Coprinopsis nivea
+Coprin blanc et noir – Coprinus picaceus
+Coprin cendré – Coprinus cinereus
+Coprin chevelu – Coprinus comatus
+Coprin conique – Parasola conopilus
+Coprin de Fries – Coprinopsis friesii
+Coprin de Kühner – Parasola kuehneri
+Coprin de Romagnesi – Coprinopsis romagnesiana
+Coprin de Sprague – Coprinus spraguei
+Coprin des charbonnières – Coprinellus angulatus
+Coprin des chaumes – Coprinus friesii
+Coprin des forêts – Coprinellus silvaticus
+Coprin des joncs – Coprinopsis martinii
+Coprin des oyats – Coprinopsis ammophilae
+Coprin des troncs – Coprinellus truncorum
+Coprin disséminé – Coprinellus disseminatus
+Coprin domestique – Coprinellus domesticus
+Coprin doré – Parasola auricoma
+Coprin du fumier – Coprinus sterquilinus
+Coprin du peuplier – Coprinus strossmayeri
+Coprin écailleux – Coprinopsis variegata
+Coprin éphémère – Coprinellus ephemerus
+Coprin floconneux – Coprinellus flocculosus
+Coprin fugitif – Parasola hemerobia
+Coprin glabre – Parasola leiocephala
+Coprin grégaire – Coprinus disseminatus
+Coprin gris souris – Coprinopsis laanii
+Coprin impatient – Coprinus impatiens
+Coprin insigne – Coprinopsis insignis
+Coprin laineux – Coprinellus laniger
+Coprin laineux des charbonnières – Coprinus jonesii
+Coprin macrocéphale – Coprinopsis macrocephala
+Coprin micacé – Coprinellus micaceus
+Coprin micace à pied lisse – Coprinellus truncorum
+Coprin mini-pie – Coprinopsis gonophylla
+Coprin misérable – Parasola misera
+Coprin noir d'encre – Coprinus atramentarius
+Coprin noir d'encre pointu – Coprinopsis acuminata
+Coprin parasol – Parasola plicatilis
+Coprin pie – Coprinopsis picacea
+Coprin pied-de-lièvre – Coprinopsis lagopus
+Coprin plissé – Parasola plicatilis
+Coprin rayonnant – Coprinellus radians
+Coprin stercoraire – Coprinopsis stercorea
+Coprin squamuleux – Coprinus romagnesianus
+Coprin virginal – Coprinellus heptemerus
+Coprin voilé de blanc – Coprinopsis canoceps
 </t>
         </is>
       </c>
